--- a/OpenCart.xlsx
+++ b/OpenCart.xlsx
@@ -4,15 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="15600" windowHeight="6510"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="testdata" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -402,7 +401,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
